--- a/Second year of study/Лабы по Прикладной статистике/лаб 3/лаб3.xlsx
+++ b/Second year of study/Лабы по Прикладной статистике/лаб 3/лаб3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23820" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -200,11 +200,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -248,7 +248,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,16 +269,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,38 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -325,7 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,17 +347,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,13 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,19 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,37 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,19 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +572,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -613,33 +613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +634,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -670,15 +670,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +692,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -711,152 +711,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,10 +875,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,9 +894,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,8 +997,8 @@
         <s v="Goldshell LT5 Pro"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Хешрейт, Mh/s" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="840000" count="28">
+    <cacheField name="Хешрейт, Mh/s" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="840000" count="28">
         <n v="9050"/>
         <n v="3680"/>
         <n v="2400"/>
@@ -1032,8 +1029,8 @@
         <n v="24500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Энергопотребление, W" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="240" maxValue="31448" count="27">
+    <cacheField name="Энергопотребление, W" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="31448" count="27">
         <n v="3300"/>
         <n v="2200"/>
         <n v="1920"/>
@@ -1064,7 +1061,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Энергоэффективность, J/Mh" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.6" maxValue="86.1" count="28">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="86.1" count="28">
         <n v="35"/>
         <n v="60"/>
         <n v="85"/>
@@ -1095,8 +1092,8 @@
         <n v="22.3"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Стоимость, руб" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52766" maxValue="3500000" count="30">
+    <cacheField name="Стоимость, руб" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3500000" count="30">
         <n v="424373"/>
         <n v="206855"/>
         <n v="96671"/>
@@ -1185,8 +1182,8 @@
         <s v="Goldshell LT5 Pro"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Хешрейт, Mh/s" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="840000" count="28">
+    <cacheField name="Хешрейт, Mh/s" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="840000" count="28">
         <n v="9050"/>
         <n v="3680"/>
         <n v="2400"/>
@@ -1217,8 +1214,8 @@
         <n v="24500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Энергопотребление, W" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="240" maxValue="31448" count="27">
+    <cacheField name="Энергопотребление, W" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="31448" count="27">
         <n v="3300"/>
         <n v="2200"/>
         <n v="1920"/>
@@ -1249,7 +1246,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Энергоэффективность, J/Mh" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.6" maxValue="86.1" count="28">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="86.1" count="28">
         <n v="35"/>
         <n v="60"/>
         <n v="85"/>
@@ -1280,8 +1277,8 @@
         <n v="22.3"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Стоимость, руб" numFmtId="180">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52766" maxValue="3500000" count="30">
+    <cacheField name="Стоимость, руб" numFmtId="177">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3500000" count="30">
         <n v="424373"/>
         <n v="206855"/>
         <n v="96671"/>
@@ -1824,11 +1821,76 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+      <items count="28">
+        <item x="23"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -1907,11 +1969,79 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_2" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A15:D24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+      <items count="31">
+        <item x="24"/>
+        <item x="2"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -1990,11 +2120,77 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная _x000a_таблица15" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A27:D36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="29">
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="177" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -2344,8 +2540,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F31"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2906,7 +3102,7 @@
         <v>5400</v>
       </c>
       <c r="C28" s="9">
-        <v>240</v>
+        <v>2400</v>
       </c>
       <c r="D28" s="10">
         <v>32.5</v>
@@ -2974,7 +3170,7 @@
       <c r="E31" s="9">
         <v>302978</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2995,7 +3191,7 @@
   <sheetPr/>
   <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -3098,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>(C6-$C$12)^2*B6</f>
+        <f t="shared" si="1"/>
         <v>4126681.4422222</v>
       </c>
     </row>
@@ -3164,7 +3360,7 @@
         <v>190000</v>
       </c>
       <c r="F9" s="2">
-        <f>(C9-$C$12)^2*B9</f>
+        <f t="shared" si="1"/>
         <v>2169336.21777776</v>
       </c>
     </row>
@@ -3339,7 +3535,7 @@
         <v>36954204.5</v>
       </c>
       <c r="F18" s="2">
-        <f>(C18-$C$24)^2*B18</f>
+        <f t="shared" si="2"/>
         <v>287262185150322</v>
       </c>
     </row>
@@ -3383,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f>(C20-$C$24)^2*B20</f>
+        <f t="shared" si="2"/>
         <v>80641082481444</v>
       </c>
     </row>
@@ -3570,11 +3766,11 @@
         <v>8.12249999999995</v>
       </c>
       <c r="E30" s="2">
-        <f>(D30*B30)</f>
+        <f t="shared" si="4"/>
         <v>16.2449999999999</v>
       </c>
       <c r="F30" s="2">
-        <f>(C30-$C$36^2*B30)</f>
+        <f t="shared" si="5"/>
         <v>-2626563.3</v>
       </c>
     </row>
